--- a/medicine/Enfance/Claire_Degans/Claire_Degans.xlsx
+++ b/medicine/Enfance/Claire_Degans/Claire_Degans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claire Degans est une artiste peintre française, née à Montpellier en 1977.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir obtenu une licence d'arts plastiques à l'université de Montpellier en 1997, Claire Degans complète sa formation en gravure à l'École supérieure des arts appliqués Duperré à Paris de 1997 à 2001. Elle obtient en 1998 une maîtrise d'esthétique à l'université Paris I ainsi qu'une licence d'histoire de l'art de 1998 à 1999.
 Elle se dirige dès 2002 vers la peinture, la gravure et l'illustration, alternant les expositions personnelles de peinture et les publications d'albums pour la jeunesse (Actes Sud, Hachette, Flammarion, Gautier-Languereau, etc) ainsi que des dessins de presse (Libération, Madame Figaro, etc). 
 Ses paysages, contemplatifs, sont la transcription poétique d’un rapport au monde proche de la peinture taoïste chinoise. On retrouve également dans ses illustrations une dimension onirique et une certaine douceur.
-Elle s'est établie à Sumène[1].
+Elle s'est établie à Sumène.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Octobre 2010 : La Tapageuse, Didier Jeunesse.
 Mars 2010 : Les malheurs de Sophie, Gründ.
@@ -599,7 +615,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Octogones pour Contes de frissons.</t>
         </is>
@@ -629,7 +647,9 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Février 2022 : Galerie L’étang d’Art, Bages.
 Septembre-octobre 2019 : Abbaye Saint-André, Villeneuve les Avignons.
